--- a/src/main/java/Resources/TestData.xlsx
+++ b/src/main/java/Resources/TestData.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA21B88-A422-47E0-BF15-09E1DBE69D4C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53155651-26C5-4253-A895-E4F004DD16F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestDataSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="TestDataSheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="TestDataSheet" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Sr. No</t>
   </si>
@@ -86,6 +87,21 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>Kaushal</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Signup</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>AddData</t>
   </si>
 </sst>
 </file>
@@ -413,11 +429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC2AB2-DD24-46B4-8847-0BB28D368A27}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -507,6 +523,123 @@
       </c>
       <c r="L2" t="s">
         <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7DE22EB9-C392-4CBA-BBFB-1627DD0B80AD}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{8CF9EE1D-9060-4A52-AE2B-3D85A4A2F006}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{BDD6C6E6-0304-4946-A388-E7718F8D7ECA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
